--- a/resources/wheels/232 - Ивашко.xlsx
+++ b/resources/wheels/232 - Ивашко.xlsx
@@ -23,7 +23,7 @@
   </sheets>
   <calcPr calcId="162913" calcMode="manual"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -687,16 +687,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -895,9 +895,9 @@
       <c r="F16" s="19">
         <v>65.400000000000006</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>93.4</v>
+        <v>108.80100000000002</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -991,7 +991,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>5.468</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -1001,7 +1003,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>6.218</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -1011,7 +1015,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>3.715</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -1530,16 +1536,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1738,9 +1744,9 @@
       <c r="F16" s="19">
         <v>65.400000000000006</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>93.4</v>
+        <v>108.80100000000002</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -1834,7 +1840,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>5.468</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -1844,7 +1852,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>6.218</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -1854,7 +1864,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>3.715</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -2373,16 +2385,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2581,9 +2593,9 @@
       <c r="F16" s="19">
         <v>65.400000000000006</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>93.4</v>
+        <v>108.80100000000002</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -2677,7 +2689,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>5.468</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -2687,7 +2701,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>6.218</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -2697,7 +2713,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>3.715</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -3216,16 +3234,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3424,9 +3442,9 @@
       <c r="F16" s="19">
         <v>65.400000000000006</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>93.4</v>
+        <v>108.80100000000002</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -3520,7 +3538,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>5.468</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -3530,7 +3550,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>6.218</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -3540,7 +3562,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>3.715</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -4059,16 +4083,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -4267,9 +4291,9 @@
       <c r="F16" s="19">
         <v>65.400000000000006</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>93.4</v>
+        <v>108.80100000000002</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -4363,7 +4387,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>5.468</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -4373,7 +4399,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>6.218</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -4383,7 +4411,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>3.715</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -4902,16 +4932,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -5110,9 +5140,9 @@
       <c r="F16" s="19">
         <v>65.400000000000006</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>93.4</v>
+        <v>108.80100000000002</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -5206,7 +5236,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>5.468</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -5216,7 +5248,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>6.218</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -5226,7 +5260,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>3.715</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -5745,16 +5781,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -5953,9 +5989,9 @@
       <c r="F16" s="19">
         <v>65.400000000000006</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>93.4</v>
+        <v>108.80100000000002</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -6049,7 +6085,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>5.468</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -6059,7 +6097,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>6.218</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -6069,7 +6109,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>3.715</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -6588,16 +6630,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -6796,9 +6838,9 @@
       <c r="F16" s="19">
         <v>65.400000000000006</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>93.4</v>
+        <v>108.80100000000002</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -6892,7 +6934,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>5.468</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -6902,7 +6946,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>6.218</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -6912,7 +6958,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>3.715</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -7431,16 +7479,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -7639,9 +7687,9 @@
       <c r="F16" s="19">
         <v>65.400000000000006</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>93.4</v>
+        <v>108.80100000000002</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -7735,7 +7783,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>5.468</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -7745,7 +7795,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>6.218</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -7755,7 +7807,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>3.715</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -8274,16 +8328,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -8482,9 +8536,9 @@
       <c r="F16" s="19">
         <v>65.400000000000006</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>93.4</v>
+        <v>108.80100000000002</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -8578,7 +8632,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>5.468</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -8588,7 +8644,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>6.218</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -8598,7 +8656,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>3.715</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -9117,16 +9177,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -9325,9 +9385,9 @@
       <c r="F16" s="19">
         <v>65.400000000000006</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>93.4</v>
+        <v>108.80100000000002</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -9421,7 +9481,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>5.468</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -9431,7 +9493,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>6.218</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -9441,7 +9505,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>3.715</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -9960,16 +10026,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -10168,9 +10234,9 @@
       <c r="F16" s="19">
         <v>65.400000000000006</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>93.4</v>
+        <v>108.80100000000002</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -10264,7 +10330,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>5.468</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -10274,7 +10342,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>6.218</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -10284,7 +10354,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>3.715</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -10803,16 +10875,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -11011,9 +11083,9 @@
       <c r="F16" s="19">
         <v>65.400000000000006</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>93.4</v>
+        <v>108.80100000000002</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -11107,7 +11179,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>5.468</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -11117,7 +11191,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>6.218</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -11127,7 +11203,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>3.715</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
